--- a/resources/data-imports/Monsters/weekly-monsters.xlsx
+++ b/resources/data-imports/Monsters/weekly-monsters.xlsx
@@ -245,6 +245,9 @@
     <t>452861832132-905723664264</t>
   </si>
   <si>
+    <t>50000000000-100000000000</t>
+  </si>
+  <si>
     <t>Twisted Memories</t>
   </si>
   <si>
@@ -330,9 +333,6 @@
   </si>
   <si>
     <t>Judge of ones mind</t>
-  </si>
-  <si>
-    <t>50000000000-100000000000</t>
   </si>
   <si>
     <t>Delusional Memories</t>
@@ -703,14 +703,14 @@
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="49.417" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -726,7 +726,7 @@
     <col min="23" max="23" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="22.28" bestFit="true" customWidth="true" style="0"/>
@@ -2259,28 +2259,28 @@
         <v>74</v>
       </c>
       <c r="C12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="D12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="E12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="F12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="G12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="H12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="I12">
-        <v>905723664264</v>
+        <v>100000000000</v>
       </c>
       <c r="J12">
-        <v>905723664264</v>
+        <v>4000000000</v>
       </c>
       <c r="K12">
         <v>0.0193</v>
@@ -2325,13 +2325,13 @@
         <v>75</v>
       </c>
       <c r="Z12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12">
-        <v>905723664264</v>
+        <v>50000000000</v>
       </c>
       <c r="AB12">
-        <v>905723664264</v>
+        <v>25000000000</v>
       </c>
       <c r="AC12">
         <v>0.0193</v>
@@ -2364,7 +2364,7 @@
         <v>0.0193</v>
       </c>
       <c r="AO12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ12">
         <v>0.2618</v>
@@ -2387,31 +2387,31 @@
         <v>539</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="F13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="H13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I13">
-        <v>500000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="J13">
-        <v>500000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K13">
         <v>0.001</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA13">
-        <v>500000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="AB13">
-        <v>500000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="AC13">
         <v>0.001</v>
@@ -2495,7 +2495,7 @@
         <v>0.001</v>
       </c>
       <c r="AO13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ13">
         <v>0.15</v>
@@ -2518,31 +2518,31 @@
         <v>546</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="F14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="H14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I14">
-        <v>1000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="J14">
-        <v>1000000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K14">
         <v>0.0316</v>
@@ -2584,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AA14">
-        <v>1000000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="AB14">
-        <v>1000000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="AC14">
         <v>0.0316</v>
@@ -2626,7 +2626,7 @@
         <v>0.0316</v>
       </c>
       <c r="AO14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ14">
         <v>0.2872</v>
@@ -2649,31 +2649,31 @@
         <v>547</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="D15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="E15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="F15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="G15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="H15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="I15">
-        <v>1197466020110</v>
+        <v>100000000000</v>
       </c>
       <c r="J15">
-        <v>1197466020110</v>
+        <v>4000000000</v>
       </c>
       <c r="K15">
         <v>0.0562</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AA15">
-        <v>1197466020110</v>
+        <v>50000000000</v>
       </c>
       <c r="AB15">
-        <v>1197466020110</v>
+        <v>25000000000</v>
       </c>
       <c r="AC15">
         <v>0.0562</v>
@@ -2757,7 +2757,7 @@
         <v>0.0562</v>
       </c>
       <c r="AO15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ15">
         <v>0.3418</v>
@@ -2780,31 +2780,31 @@
         <v>548</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="D16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="E16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="F16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="G16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="H16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="I16">
-        <v>1335595194477</v>
+        <v>100000000000</v>
       </c>
       <c r="J16">
-        <v>1335595194477</v>
+        <v>4000000000</v>
       </c>
       <c r="K16">
         <v>0.0929</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA16">
-        <v>1335595194477</v>
+        <v>50000000000</v>
       </c>
       <c r="AB16">
-        <v>1335595194477</v>
+        <v>25000000000</v>
       </c>
       <c r="AC16">
         <v>0.0929</v>
@@ -2888,7 +2888,7 @@
         <v>0.0929</v>
       </c>
       <c r="AO16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ16">
         <v>0.3789</v>
@@ -2911,31 +2911,31 @@
         <v>549</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="D17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="E17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="F17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="G17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="H17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="I17">
-        <v>1489657738552</v>
+        <v>100000000000</v>
       </c>
       <c r="J17">
-        <v>1489657738552</v>
+        <v>4000000000</v>
       </c>
       <c r="K17">
         <v>0.1538</v>
@@ -2977,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AA17">
-        <v>1489657738552</v>
+        <v>50000000000</v>
       </c>
       <c r="AB17">
-        <v>1489657738552</v>
+        <v>25000000000</v>
       </c>
       <c r="AC17">
         <v>0.1538</v>
@@ -3019,7 +3019,7 @@
         <v>0.1538</v>
       </c>
       <c r="AO17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ17">
         <v>0.42</v>
@@ -3042,31 +3042,31 @@
         <v>550</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="D18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="E18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="F18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="G18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="H18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="I18">
-        <v>1661491586077</v>
+        <v>100000000000</v>
       </c>
       <c r="J18">
-        <v>1661491586077</v>
+        <v>4000000000</v>
       </c>
       <c r="K18">
         <v>0.2545</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AA18">
-        <v>1661491586077</v>
+        <v>50000000000</v>
       </c>
       <c r="AB18">
-        <v>1661491586077</v>
+        <v>25000000000</v>
       </c>
       <c r="AC18">
         <v>0.2545</v>
@@ -3150,7 +3150,7 @@
         <v>0.2545</v>
       </c>
       <c r="AO18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ18">
         <v>0.4655</v>
@@ -3173,31 +3173,31 @@
         <v>551</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="D19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="E19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="F19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="G19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="H19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="I19">
-        <v>1853146678705</v>
+        <v>100000000000</v>
       </c>
       <c r="J19">
-        <v>1853146678705</v>
+        <v>4000000000</v>
       </c>
       <c r="K19">
         <v>0.421</v>
@@ -3239,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AA19">
-        <v>1853146678705</v>
+        <v>50000000000</v>
       </c>
       <c r="AB19">
-        <v>1853146678705</v>
+        <v>25000000000</v>
       </c>
       <c r="AC19">
         <v>0.421</v>
@@ -3281,7 +3281,7 @@
         <v>0.421</v>
       </c>
       <c r="AO19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ19">
         <v>0.516</v>
@@ -3304,31 +3304,31 @@
         <v>552</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="F20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="H20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I20">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="J20">
-        <v>2000000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K20">
         <v>0.6966</v>
@@ -3370,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z20" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AA20">
-        <v>2000000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="AB20">
-        <v>2000000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="AC20">
         <v>0.6966</v>
@@ -3412,7 +3412,7 @@
         <v>0.6966</v>
       </c>
       <c r="AO20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ20">
         <v>0.55</v>
@@ -3435,31 +3435,31 @@
         <v>553</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="F21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="H21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I21">
-        <v>2000000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="J21">
-        <v>2000000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -3501,16 +3501,16 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AA21">
-        <v>2000000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="AB21">
-        <v>2000000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>0.8</v>
       </c>
       <c r="AO21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ21">
         <v>0.55</v>
@@ -3566,31 +3566,31 @@
         <v>544</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="D22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="E22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="F22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="G22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="H22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="I22">
-        <v>820335356008</v>
+        <v>100000000000</v>
       </c>
       <c r="J22">
-        <v>820335356008</v>
+        <v>4000000000</v>
       </c>
       <c r="K22">
         <v>0.0118</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z22" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AA22">
-        <v>820335356008</v>
+        <v>50000000000</v>
       </c>
       <c r="AB22">
-        <v>820335356008</v>
+        <v>25000000000</v>
       </c>
       <c r="AC22">
         <v>0.0118</v>
@@ -3674,7 +3674,7 @@
         <v>0.0118</v>
       </c>
       <c r="AO22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ22">
         <v>0.2386</v>
@@ -3697,31 +3697,31 @@
         <v>543</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="D23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="E23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="F23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="G23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="H23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="I23">
-        <v>742997144569</v>
+        <v>100000000000</v>
       </c>
       <c r="J23">
-        <v>742997144569</v>
+        <v>4000000000</v>
       </c>
       <c r="K23">
         <v>0.0072</v>
@@ -3763,16 +3763,16 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z23" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AA23">
-        <v>742997144569</v>
+        <v>50000000000</v>
       </c>
       <c r="AB23">
-        <v>742997144569</v>
+        <v>25000000000</v>
       </c>
       <c r="AC23">
         <v>0.0072</v>
@@ -3805,7 +3805,7 @@
         <v>0.0072</v>
       </c>
       <c r="AO23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ23">
         <v>0.2174</v>
@@ -3828,31 +3828,31 @@
         <v>542</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="D24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="E24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="F24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="G24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="H24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="I24">
-        <v>672950096317</v>
+        <v>100000000000</v>
       </c>
       <c r="J24">
-        <v>672950096317</v>
+        <v>4000000000</v>
       </c>
       <c r="K24">
         <v>0.0044</v>
@@ -3894,16 +3894,16 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z24" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AA24">
-        <v>672950096317</v>
+        <v>50000000000</v>
       </c>
       <c r="AB24">
-        <v>672950096317</v>
+        <v>25000000000</v>
       </c>
       <c r="AC24">
         <v>0.0044</v>
@@ -3936,7 +3936,7 @@
         <v>0.0044</v>
       </c>
       <c r="AO24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ24">
         <v>0.1982</v>
@@ -3959,31 +3959,31 @@
         <v>541</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="D25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="E25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="F25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="G25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="H25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="I25">
-        <v>609506827103</v>
+        <v>100000000000</v>
       </c>
       <c r="J25">
-        <v>609506827103</v>
+        <v>4000000000</v>
       </c>
       <c r="K25">
         <v>0.0027</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z25" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AA25">
-        <v>609506827103</v>
+        <v>50000000000</v>
       </c>
       <c r="AB25">
-        <v>609506827103</v>
+        <v>25000000000</v>
       </c>
       <c r="AC25">
         <v>0.0027</v>
@@ -4067,7 +4067,7 @@
         <v>0.0027</v>
       </c>
       <c r="AO25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ25">
         <v>0.1806</v>
@@ -4090,31 +4090,31 @@
         <v>540</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="D26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="E26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="F26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="G26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="H26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="I26">
-        <v>552044756837</v>
+        <v>100000000000</v>
       </c>
       <c r="J26">
-        <v>552044756837</v>
+        <v>4000000000</v>
       </c>
       <c r="K26">
         <v>0.0016</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z26" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AA26">
-        <v>552044756837</v>
+        <v>50000000000</v>
       </c>
       <c r="AB26">
-        <v>552044756837</v>
+        <v>25000000000</v>
       </c>
       <c r="AC26">
         <v>0.0016</v>
@@ -4198,7 +4198,7 @@
         <v>0.0016</v>
       </c>
       <c r="AO26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ26">
         <v>0.1646</v>
@@ -4221,7 +4221,7 @@
         <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>100000000000</v>
@@ -4245,7 +4245,7 @@
         <v>100000000000</v>
       </c>
       <c r="J27">
-        <v>100000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K27">
         <v>0.001</v>
@@ -4287,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AA27">
-        <v>100000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="AB27">
-        <v>100000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="AC27">
         <v>0.001</v>
@@ -4358,28 +4358,28 @@
         <v>107</v>
       </c>
       <c r="C28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="E28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="F28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="H28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I28">
-        <v>400000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="J28">
-        <v>400000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -4424,13 +4424,13 @@
         <v>108</v>
       </c>
       <c r="Z28" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AA28">
-        <v>400000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="AB28">
-        <v>400000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -4492,28 +4492,28 @@
         <v>109</v>
       </c>
       <c r="C29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="D29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="E29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="F29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="G29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="H29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="I29">
-        <v>257150904300</v>
+        <v>100000000000</v>
       </c>
       <c r="J29">
-        <v>257150904300</v>
+        <v>4000000000</v>
       </c>
       <c r="K29">
         <v>0.1021</v>
@@ -4558,13 +4558,13 @@
         <v>110</v>
       </c>
       <c r="Z29" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AA29">
-        <v>257150904300</v>
+        <v>50000000000</v>
       </c>
       <c r="AB29">
-        <v>257150904300</v>
+        <v>25000000000</v>
       </c>
       <c r="AC29">
         <v>0.1021</v>
@@ -4626,28 +4626,28 @@
         <v>111</v>
       </c>
       <c r="C30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="D30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="E30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="F30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="G30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="H30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="I30">
-        <v>158740105197</v>
+        <v>100000000000</v>
       </c>
       <c r="J30">
-        <v>158740105197</v>
+        <v>4000000000</v>
       </c>
       <c r="K30">
         <v>0.01</v>
@@ -4692,13 +4692,13 @@
         <v>112</v>
       </c>
       <c r="Z30" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AA30">
-        <v>158740105197</v>
+        <v>50000000000</v>
       </c>
       <c r="AB30">
-        <v>158740105197</v>
+        <v>25000000000</v>
       </c>
       <c r="AC30">
         <v>0.01</v>
